--- a/learn_13/turbineLineInterplator/turbineLineInterplator/indata/test.xlsx
+++ b/learn_13/turbineLineInterplator/turbineLineInterplator/indata/test.xlsx
@@ -1,190 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5FF2A1-45F7-417A-AD1B-1B2226320F8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\code\git-repository\CPPLearning\learn_13\turbineLineInterplator\turbineLineInterplator\indata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B0F7DF-8944-4E85-9C22-292191F85AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="150000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
-    <t>流量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>preRotation0</t>
   </si>
   <si>
-    <t>效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>preRotation+1</t>
   </si>
   <si>
-    <t>压比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>preRotation-1</t>
   </si>
   <si>
-    <t>6400转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>preRotation+2</t>
   </si>
   <si>
-    <t>8000转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>preRotation-2</t>
   </si>
   <si>
-    <t>8800转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2900speed</t>
   </si>
   <si>
-    <t>预旋+1°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>3200speed</t>
   </si>
   <si>
-    <t>4800转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>4000speed</t>
   </si>
   <si>
-    <t>5600转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>4800speed</t>
   </si>
   <si>
-    <t>7200转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5600speed</t>
   </si>
   <si>
-    <t>预旋-1°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>6400speed</t>
   </si>
   <si>
-    <t>预旋0°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>7200speed</t>
   </si>
   <si>
-    <t>预旋+2°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>8000speed</t>
   </si>
   <si>
-    <t>预旋-2°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>8800speed</t>
   </si>
   <si>
-    <t>设计点参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>9600speed</t>
   </si>
   <si>
-    <t>设计值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>10400speed</t>
   </si>
   <si>
-    <t>压比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>10000speed</t>
   </si>
   <si>
-    <t>效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>flow</t>
   </si>
   <si>
-    <t>功率(MW)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>efficiency</t>
   </si>
   <si>
-    <t>流量(Kg/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口温度(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口温度(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转子转速(r/min)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口压力(MPa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口压力(MPa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序实际值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>误差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    ——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2900转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2900转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9600转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10400转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000转速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>pressRatio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,7 +104,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,15 +112,7 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,24 +120,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,20 +146,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -271,231 +166,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>417750</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>83974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78D9E49-0B11-461E-BA7E-40C0B8BFA9F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25098375" y="31694438"/>
-          <a:ext cx="10800000" cy="5965663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>465375</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>84947</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62375CD0-99DB-41BE-9A1A-B3BC3969F6F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25146000" y="24645938"/>
-          <a:ext cx="10800000" cy="5895196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>370125</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>11747</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56203D42-2A69-495C-A74E-1FA9DF07BD41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25050750" y="17311687"/>
-          <a:ext cx="10800000" cy="5845810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>513000</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>130164</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD65FA3-401B-4265-88F0-192F60E3B257}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24955500" y="9372601"/>
-          <a:ext cx="10800000" cy="5802093"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>251062</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>84590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CA4931-F73B-46EE-BA99-9F6A02754349}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24931687" y="642939"/>
-          <a:ext cx="10800000" cy="5990089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +216,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -581,7 +251,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -761,30 +431,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI235"/>
+  <dimension ref="A1:AI229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="20">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -889,9 +556,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0.75647358360311701</v>
@@ -996,9 +663,9 @@
         <v>0.203894604972963</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1.12005344080554</v>
@@ -1103,14 +770,14 @@
         <v>1.0082031188087499</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1215,9 +882,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.74524366048759505</v>
@@ -1322,9 +989,9 @@
         <v>0.47924625462242898</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>1.1464266287263101</v>
@@ -1429,14 +1096,14 @@
         <v>1.03160129974209</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -1541,9 +1208,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.71551018041728598</v>
@@ -1648,9 +1315,9 @@
         <v>0.71279786343455998</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1.2272269236557001</v>
@@ -1755,14 +1422,14 @@
         <v>1.11061890627731</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1867,9 +1534,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0.68706783781590697</v>
@@ -1974,9 +1641,9 @@
         <v>0.77808976272779296</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1.3221192625169</v>
@@ -2081,14 +1748,14 @@
         <v>1.21424968473324</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -2193,9 +1860,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0.66041111465043401</v>
@@ -2300,9 +1967,9 @@
         <v>0.80222822965666196</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1.4299160109628199</v>
@@ -2407,14 +2074,14 @@
         <v>1.3429519489758499</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -2519,9 +2186,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0.63571601827380697</v>
@@ -2626,9 +2293,9 @@
         <v>0.81108073167129502</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>1.5497145709037501</v>
@@ -2733,14 +2400,14 @@
         <v>1.49695642228703</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -2845,9 +2512,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>0.61292393100895004</v>
@@ -2952,9 +2619,9 @@
         <v>0.81281096539633801</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>1.68078837097051</v>
@@ -3059,14 +2726,14 @@
         <v>1.67629464870457</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -3171,9 +2838,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>0.59192152943317</v>
@@ -3278,9 +2945,9 @@
         <v>0.81094388573461795</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>1.82256612150018</v>
@@ -3385,14 +3052,14 @@
         <v>1.88112460866225</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>100</v>
@@ -3497,9 +3164,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>0.57256132475351595</v>
@@ -3604,9 +3271,9 @@
         <v>0.80693401463709902</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>1.97458084404649</v>
@@ -3711,14 +3378,14 @@
         <v>2.11130027443191</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35">
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -3823,9 +3490,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0.55468561979549402</v>
@@ -3930,9 +3597,9 @@
         <v>0.80150517895515405</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>2.1364361276227002</v>
@@ -4037,14 +3704,14 @@
         <v>2.3664982428179999</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -4149,9 +3816,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0.53814035978108998</v>
@@ -4256,9 +3923,9 @@
         <v>0.79525646958929797</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>2.30778166289039</v>
@@ -4363,19 +4030,19 @@
         <v>2.6466823500115599</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="20">
       <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>100</v>
@@ -4480,9 +4147,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>0.762054137906787</v>
@@ -4587,9 +4254,9 @@
         <v>0.18887999385142501</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>1.12550843163543</v>
@@ -4694,14 +4361,14 @@
         <v>1.0079424840820399</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35">
       <c r="A52" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>100</v>
@@ -4806,9 +4473,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B54">
         <v>0.75152588834436396</v>
@@ -4913,9 +4580,9 @@
         <v>0.46909113813321102</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <v>1.1532515133773</v>
@@ -5020,14 +4687,14 @@
         <v>1.0322603618456201</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35">
       <c r="A56" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B57">
         <v>100</v>
@@ -5132,9 +4799,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>0.72351501399962703</v>
@@ -5239,9 +4906,9 @@
         <v>0.70832719048057602</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>1.2385281655573701</v>
@@ -5346,14 +5013,14 @@
         <v>1.11442630046936</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35">
       <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B61">
         <v>100</v>
@@ -5458,9 +5125,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>0.69662084082909703</v>
@@ -5565,9 +5232,9 @@
         <v>0.77592142705106704</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B63">
         <v>1.3391509799185199</v>
@@ -5672,14 +5339,14 @@
         <v>1.22228377910923</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35">
       <c r="A64" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <v>100</v>
@@ -5784,9 +5451,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <v>0.67136340515083004</v>
@@ -5891,9 +5558,9 @@
         <v>0.80130575931264703</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>1.45399732913126</v>
@@ -5998,14 +5665,14 @@
         <v>1.35634555561023</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35">
       <c r="A68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <v>100</v>
@@ -6110,9 +5777,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <v>0.647932719796393</v>
@@ -6217,9 +5884,9 @@
         <v>0.811139878151098</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>1.5822213797436</v>
@@ -6324,14 +5991,14 @@
         <v>1.5170073464001299</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35">
       <c r="A72" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <v>100</v>
@@ -6436,9 +6103,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>0.62628407301060596</v>
@@ -6543,9 +6210,9 @@
         <v>0.81391372223298397</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B75">
         <v>1.72314691954252</v>
@@ -6650,14 +6317,14 @@
         <v>1.7045629738219901</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35">
       <c r="A76" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>100</v>
@@ -6762,9 +6429,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>0.60631582370805903</v>
@@ -6869,9 +6536,9 @@
         <v>0.81302518925662204</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>1.8762456707301001</v>
@@ -6976,14 +6643,14 @@
         <v>1.9192107470465201</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35">
       <c r="A80" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>100</v>
@@ -7088,9 +6755,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>0.58789121063962302</v>
@@ -7195,9 +6862,9 @@
         <v>0.80967017152681597</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B83">
         <v>2.0410870462408601</v>
@@ -7302,14 +6969,14 @@
         <v>2.1604875825484702</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35">
+      <c r="A84" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <v>100</v>
@@ -7414,9 +7081,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>0.57086259852596399</v>
@@ -7521,9 +7188,9 @@
         <v>0.804737211334004</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>2.2173056626864001</v>
@@ -7628,14 +7295,14 @@
         <v>2.4281450033244298</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35">
+      <c r="A88" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B89">
         <v>100</v>
@@ -7740,9 +7407,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B90">
         <v>0.555085364042883</v>
@@ -7847,9 +7514,9 @@
         <v>0.79895622356856499</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B91">
         <v>2.4045776513336699</v>
@@ -7954,19 +7621,19 @@
         <v>2.72234570236522</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" ht="20">
       <c r="A93" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35">
       <c r="A94" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>100</v>
@@ -8071,9 +7738,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B96">
         <v>0.74097576840045898</v>
@@ -8178,9 +7845,9 @@
         <v>7.6504211284075002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B97">
         <v>1.1166278876581901</v>
@@ -8285,14 +7952,14 @@
         <v>1.00304038465474</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35">
       <c r="A98" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>100</v>
@@ -8397,9 +8064,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B100">
         <v>0.72942461091522204</v>
@@ -8504,9 +8171,9 @@
         <v>0.39640161070053498</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B101">
         <v>1.14213438725281</v>
@@ -8611,14 +8278,14 @@
         <v>1.0258512382954701</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35">
       <c r="A102" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B103">
         <v>100</v>
@@ -8723,9 +8390,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B104">
         <v>0.69838741443710195</v>
@@ -8830,9 +8497,9 @@
         <v>0.67046260215791498</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B105">
         <v>1.2199186916617299</v>
@@ -8937,14 +8604,14 @@
         <v>1.10301581087235</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35">
       <c r="A106" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35">
       <c r="A107" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B107">
         <v>100</v>
@@ -9049,9 +8716,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B108">
         <v>0.66836344530013503</v>
@@ -9156,9 +8823,9 @@
         <v>0.74924642955656295</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B109">
         <v>1.31063541293666</v>
@@ -9263,14 +8930,14 @@
         <v>1.2043243276660001</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35">
       <c r="A110" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B111">
         <v>100</v>
@@ -9375,9 +9042,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B112">
         <v>0.64007184991949995</v>
@@ -9482,9 +9149,9 @@
         <v>0.77972031287402099</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B113">
         <v>1.41294945548827</v>
@@ -9589,14 +9256,14 @@
         <v>1.33016163319457</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35">
       <c r="A114" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B115">
         <v>100</v>
@@ -9701,9 +9368,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35">
       <c r="A116" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B116">
         <v>0.61379038286590104</v>
@@ -9808,9 +9475,9 @@
         <v>0.79222158191362102</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B117">
         <v>1.5258383710149599</v>
@@ -9915,14 +9582,14 @@
         <v>1.4807997764602601</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35">
       <c r="A118" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>100</v>
@@ -10027,9 +9694,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B120">
         <v>0.58950274851916995</v>
@@ -10134,9 +9801,9 @@
         <v>0.79646569156240798</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B121">
         <v>1.64847464544626</v>
@@ -10241,14 +9908,14 @@
         <v>1.65640806071783</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35">
       <c r="A122" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <v>100</v>
@@ -10353,9 +10020,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35">
       <c r="A124" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B124">
         <v>0.567112823434893</v>
@@ -10460,9 +10127,9 @@
         <v>0.79636855446767496</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B125">
         <v>1.78020435788996</v>
@@ -10567,14 +10234,14 @@
         <v>1.8570579580044699</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35">
       <c r="A126" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35">
       <c r="A127" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B127">
         <v>100</v>
@@ -10679,9 +10346,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35">
       <c r="A128" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B128">
         <v>0.54647674909166399</v>
@@ -10786,9 +10453,9 @@
         <v>0.793348821369942</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B129">
         <v>1.92049186506499</v>
@@ -10893,14 +10560,14 @@
         <v>2.08213957458391</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35">
+      <c r="A130" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35">
       <c r="A131" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B131">
         <v>100</v>
@@ -11005,9 +10672,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35">
       <c r="A132" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B132">
         <v>0.52743346182808004</v>
@@ -11112,9 +10779,9 @@
         <v>0.78842987241532503</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B133">
         <v>2.0688824953338698</v>
@@ -11219,14 +10886,14 @@
         <v>2.3312443766427302</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35">
+      <c r="A134" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35">
       <c r="A135" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B135">
         <v>100</v>
@@ -11331,9 +10998,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35">
       <c r="A136" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B136">
         <v>0.51845855173165101</v>
@@ -11438,9 +11105,9 @@
         <v>0.78554898186637101</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B137">
         <v>2.1459903111176</v>
@@ -11545,19 +11212,19 @@
         <v>2.4648382345752999</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" ht="20">
       <c r="A139" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
       <c r="A140" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
       <c r="A141" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B141">
         <v>100</v>
@@ -11662,9 +11329,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B142">
         <v>0.69887973426247796</v>
@@ -11769,9 +11436,9 @@
         <v>-0.36670702538515798</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B143">
         <v>1.1258162129846201</v>
@@ -11876,14 +11543,14 @@
         <v>0.98297554325185899</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35">
       <c r="A144" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:35">
       <c r="A145" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B145">
         <v>100</v>
@@ -11988,9 +11655,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B146">
         <v>0.68756486858061105</v>
@@ -12095,9 +11762,9 @@
         <v>0.103509935489579</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B147">
         <v>1.1532498510593101</v>
@@ -12202,14 +11869,14 @@
         <v>1.0078337345861901</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35">
       <c r="A148" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:35">
       <c r="A149" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B149">
         <v>100</v>
@@ -12314,9 +11981,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B150">
         <v>0.65535369429943402</v>
@@ -12421,9 +12088,9 @@
         <v>0.52227737604700997</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B151">
         <v>1.2360999826063499</v>
@@ -12528,14 +12195,14 @@
         <v>1.0925886918985499</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35">
       <c r="A152" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:35">
       <c r="A153" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B153">
         <v>100</v>
@@ -12640,9 +12307,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35">
       <c r="A154" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B154">
         <v>0.62293928507565299</v>
@@ -12747,9 +12414,9 @@
         <v>0.65169270669491297</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B155">
         <v>1.33128434720333</v>
@@ -12854,14 +12521,14 @@
         <v>1.2047285909724901</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35">
       <c r="A156" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:35">
       <c r="A157" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B157">
         <v>100</v>
@@ -12966,9 +12633,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35">
       <c r="A158" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B158">
         <v>0.59186965106827705</v>
@@ -13073,9 +12740,9 @@
         <v>0.70683695542389102</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B159">
         <v>1.4369519822774</v>
@@ -13180,14 +12847,14 @@
         <v>1.34463905497222</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35">
       <c r="A160" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35">
       <c r="A161" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B161">
         <v>100</v>
@@ -13292,9 +12959,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35">
       <c r="A162" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B162">
         <v>0.56279301691686401</v>
@@ -13399,9 +13066,9 @@
         <v>0.73327990892889405</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35">
       <c r="A163" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B163">
         <v>1.5516940689062999</v>
@@ -13506,14 +13173,14 @@
         <v>1.51245441066582</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35">
       <c r="A164" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35">
       <c r="A165" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B165">
         <v>100</v>
@@ -13618,9 +13285,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35">
       <c r="A166" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B166">
         <v>0.535847564409487</v>
@@ -13725,9 +13392,9 @@
         <v>0.74599206084862602</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B167">
         <v>1.6743729276803201</v>
@@ -13832,14 +13499,14 @@
         <v>1.7081074855660301</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35">
       <c r="A168" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35">
       <c r="A169" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B169">
         <v>100</v>
@@ -13944,9 +13611,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35">
       <c r="A170" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B170">
         <v>0.51100157702575499</v>
@@ -14051,9 +13718,9 @@
         <v>0.75117542592383202</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35">
       <c r="A171" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <v>1.8040938722205799</v>
@@ -14158,14 +13825,14 @@
         <v>1.9313540717629101</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35">
       <c r="A172" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35">
       <c r="A173" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B173">
         <v>100</v>
@@ -14270,9 +13937,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35">
       <c r="A174" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B174">
         <v>0.48812839028191801</v>
@@ -14377,9 +14044,9 @@
         <v>0.75169866057704804</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B175">
         <v>1.9401250911640999</v>
@@ -14484,14 +14151,14 @@
         <v>2.1815992979917098</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35">
+      <c r="A176" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:35">
       <c r="A177" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B177">
         <v>100</v>
@@ -14596,9 +14263,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35">
       <c r="A178" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B178">
         <v>0.46706205408208001</v>
@@ -14703,9 +14370,9 @@
         <v>0.74916948169680697</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B179">
         <v>2.08184731295241</v>
@@ -14810,14 +14477,14 @@
         <v>2.4581742618367102</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:35">
+      <c r="A180" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:35">
       <c r="A181" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B181">
         <v>100</v>
@@ -14922,9 +14589,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35">
       <c r="A182" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B182">
         <v>0.45715162747718502</v>
@@ -15029,9 +14696,9 @@
         <v>0.74712436419688899</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B183">
         <v>2.1546709180844901</v>
@@ -15136,19 +14803,19 @@
         <v>2.60621180284374</v>
       </c>
     </row>
-    <row r="185" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:35" ht="20">
       <c r="A185" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35">
       <c r="A186" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35">
       <c r="A187" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B187">
         <v>100</v>
@@ -15253,9 +14920,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35">
       <c r="A188" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B188">
         <v>0.70458044935887298</v>
@@ -15360,9 +15027,9 @@
         <v>-0.48135839588132401</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B189">
         <v>1.12290364907249</v>
@@ -15467,14 +15134,14 @@
         <v>0.97858158633546699</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35">
       <c r="A190" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35">
       <c r="A191" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B191">
         <v>100</v>
@@ -15579,9 +15246,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:35">
       <c r="A192" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B192">
         <v>0.69572480695712202</v>
@@ -15686,9 +15353,9 @@
         <v>3.25839898815449E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B193">
         <v>1.1502593106277901</v>
@@ -15793,14 +15460,14 @@
         <v>1.0023710585296299</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35">
       <c r="A194" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:35">
       <c r="A195" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B195">
         <v>100</v>
@@ -15905,9 +15572,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35">
       <c r="A196" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B196">
         <v>0.66970577593940706</v>
@@ -16012,9 +15679,9 @@
         <v>0.48937242656709201</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B197">
         <v>1.2338216959488699</v>
@@ -16119,14 +15786,14 @@
         <v>1.0836712954271599</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35">
       <c r="A198" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:35">
       <c r="A199" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B199">
         <v>100</v>
@@ -16231,9 +15898,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35">
       <c r="A200" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B200">
         <v>0.64298513023649995</v>
@@ -16338,9 +16005,9 @@
         <v>0.63134225064972604</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B201">
         <v>1.3314643070485701</v>
@@ -16445,14 +16112,14 @@
         <v>1.1914695613575399</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35">
       <c r="A202" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35">
       <c r="A203" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B203">
         <v>100</v>
@@ -16557,9 +16224,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35">
       <c r="A204" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B204">
         <v>0.61711768804438405</v>
@@ -16664,9 +16331,9 @@
         <v>0.69274293619620597</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B205">
         <v>1.44177352473817</v>
@@ -16771,14 +16438,14 @@
         <v>1.32620782751356</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35">
       <c r="A206" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35">
       <c r="A207" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B207">
         <v>100</v>
@@ -16883,9 +16550,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35">
       <c r="A208" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B208">
         <v>0.592752433124067</v>
@@ -16990,9 +16657,9 @@
         <v>0.72308233880094996</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35">
       <c r="A209" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B209">
         <v>1.56368120716604</v>
@@ -17097,14 +16764,14 @@
         <v>1.4881294203161799</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35">
       <c r="A210" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:35">
       <c r="A211" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B211">
         <v>100</v>
@@ -17209,9 +16876,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35">
       <c r="A212" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B212">
         <v>0.57005758806518103</v>
@@ -17316,9 +16983,9 @@
         <v>0.73861929305452201</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35">
       <c r="A213" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B213">
         <v>1.69632973539694</v>
@@ -17423,14 +17090,14 @@
         <v>1.67731768349878</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35">
       <c r="A214" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35">
       <c r="A215" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B215">
         <v>100</v>
@@ -17535,9 +17202,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35">
       <c r="A216" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B216">
         <v>0.54903729112867905</v>
@@ -17642,9 +17309,9 @@
         <v>0.74608723816443101</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B217">
         <v>1.83904714491461</v>
@@ -17749,14 +17416,14 @@
         <v>1.89371510272711</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35">
       <c r="A218" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:35">
       <c r="A219" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B219">
         <v>100</v>
@@ -17861,9 +17528,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35">
       <c r="A220" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B220">
         <v>0.52960554885364797</v>
@@ -17968,9 +17635,9 @@
         <v>0.74862324398212698</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B221">
         <v>1.99128404357377</v>
@@ -18075,14 +17742,14 @@
         <v>2.13697792242978</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35">
+      <c r="A222" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35">
       <c r="A223" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B223">
         <v>100</v>
@@ -18187,9 +17854,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35">
       <c r="A224" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B224">
         <v>0.51163731786604705</v>
@@ -18294,9 +17961,9 @@
         <v>0.74793794625510002</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35">
       <c r="A225" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B225">
         <v>2.1525736058099199</v>
@@ -18401,14 +18068,14 @@
         <v>2.4066507352667799</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35">
+      <c r="A226" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35">
       <c r="A227" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B227">
         <v>100</v>
@@ -18513,9 +18180,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35">
       <c r="A228" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B228">
         <v>0.50315935940897705</v>
@@ -18620,9 +18287,9 @@
         <v>0.74677833133508098</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35">
       <c r="A229" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B229">
         <v>2.23648263792998</v>
@@ -18725,143 +18392,10 @@
       </c>
       <c r="AI229">
         <v>2.5513502480503401</v>
-      </c>
-    </row>
-    <row r="231" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="C233" s="4">
-        <v>526</v>
-      </c>
-      <c r="D233" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E233" s="4">
-        <v>326.10000000000002</v>
-      </c>
-      <c r="F233" s="4">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="G233" s="4">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="H233" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="I233" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="J233" s="4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B234" s="4">
-        <v>7.76</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E234" s="4">
-        <v>326.12</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G234" s="4">
-        <v>16.77</v>
-      </c>
-      <c r="H234" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="I234" s="4">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B235" s="5">
-        <v>1.2899999999999999E-3</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E235" s="5">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G235" s="5">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="H235" s="5">
-        <v>5.3E-3</v>
-      </c>
-      <c r="I235" s="5">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="J235" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>